--- a/ゲーム制作3 企画書.xlsx
+++ b/ゲーム制作3 企画書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armor\Desktop\GitHub 後期\07Sato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A67C90-E277-48ED-8B7A-F33BCEA7CD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3131F6FA-15AE-4674-B179-B5D8458ED054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10755" yWindow="1200" windowWidth="14745" windowHeight="14400" xr2:uid="{A8A71601-A5A3-4A53-A15D-3F6023E42C06}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>ジャンル</t>
   </si>
@@ -88,16 +88,256 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スコア制</t>
+    <t>接触型</t>
+    <rPh sb="0" eb="2">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムとスコアで競える</t>
+    <rPh sb="8" eb="9">
+      <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(何か特殊な移動手段を使える)</t>
+    <rPh sb="1" eb="2">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュダン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアカウンター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>的型</t>
+    <rPh sb="0" eb="1">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静止型</t>
+    <rPh sb="0" eb="2">
+      <t>セイシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動型</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. [ここに文字]</t>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. [ここに文字]</t>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. [ここに文字]</t>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wasdで前後左右に移動</t>
+    <rPh sb="5" eb="7">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spaceキーでジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスでカメラ(照準)移動</t>
+    <rPh sb="8" eb="10">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリックで射撃</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wとShiftでダッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　　　静止型</t>
+    <rPh sb="7" eb="9">
+      <t>セイシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　　　移動型</t>
+    <rPh sb="7" eb="10">
+      <t>イドウガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　接触型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　的型</t>
+    <rPh sb="5" eb="6">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定の動きで移動する</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
     <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイム制</t>
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動をさせない</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃が当たると消える</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
     <rPh sb="3" eb="4">
-      <t>セイ</t>
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接触するとスコアを加算する</t>
+    <rPh sb="0" eb="2">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経過時間を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -109,95 +349,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>接触型</t>
-    <rPh sb="0" eb="2">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵型</t>
+    <t>右クリックで[特殊な移動手段]</t>
     <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイムとスコアで競える</t>
-    <rPh sb="8" eb="9">
-      <t>キソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カウントアップ型</t>
-    <rPh sb="7" eb="8">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(何か特殊な移動手段を使える)</t>
-    <rPh sb="1" eb="2">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>トクシュ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュダン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>障害物</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガイブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スコアブロック 接触型</t>
-    <rPh sb="8" eb="10">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スコアブロック 敵型</t>
-    <rPh sb="8" eb="9">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイマー</t>
+    <rPh sb="10" eb="14">
+      <t>イドウシュダン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -585,94 +746,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1EB6D6-FB46-4106-BE11-0D2F4FE0C4E7}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>15</v>
+      <c r="C16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="2"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -683,15 +876,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81919241-06CB-4382-9F9E-1143B3743605}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="22" width="4.625" customWidth="1"/>
   </cols>
@@ -773,32 +966,92 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ゲーム制作3 企画書.xlsx
+++ b/ゲーム制作3 企画書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armor\Desktop\GitHub 後期\07Sato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3131F6FA-15AE-4674-B179-B5D8458ED054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467A32BE-D5A5-4814-B9FD-41C772759D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10755" yWindow="1200" windowWidth="14745" windowHeight="14400" xr2:uid="{A8A71601-A5A3-4A53-A15D-3F6023E42C06}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ジャンル</t>
   </si>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アクション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム概要</t>
     <rPh sb="3" eb="5">
       <t>ガイヨウ</t>
@@ -88,23 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>接触型</t>
-    <rPh sb="0" eb="2">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイムとスコアで競える</t>
-    <rPh sb="8" eb="9">
-      <t>キソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(何か特殊な移動手段を使える)</t>
     <rPh sb="1" eb="2">
       <t>ナニ</t>
@@ -147,43 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>的型</t>
-    <rPh sb="0" eb="1">
-      <t>マト</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>静止型</t>
-    <rPh sb="0" eb="2">
-      <t>セイシ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動型</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. [ここに文字]</t>
-    <rPh sb="7" eb="9">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2. [ここに文字]</t>
     <rPh sb="7" eb="9">
       <t>モジ</t>
@@ -191,13 +133,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3. [ここに文字]</t>
-    <rPh sb="7" eb="9">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>イメージ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -321,34 +256,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スコア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経過時間を表示</t>
-    <rPh sb="0" eb="2">
-      <t>ケイカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一本道</t>
-    <rPh sb="0" eb="3">
-      <t>イッポンミチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>右クリックで[特殊な移動手段]</t>
     <rPh sb="0" eb="1">
       <t>ミギ</t>
@@ -358,6 +265,61 @@
     </rPh>
     <rPh sb="10" eb="14">
       <t>イドウシュダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクションシューティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直線状のステージをゴールまで走り、かかった時間と道中のスコアで競うゲーム</t>
+    <rPh sb="0" eb="3">
+      <t>チョクセンジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ドウチュウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアブロックに接触したり、的を射撃で壊すことでスコアが加算される。</t>
+    <rPh sb="8" eb="10">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シャゲキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. [ここに文字]</t>
+  </si>
+  <si>
+    <t>3. スコアとタイムの記録で競える</t>
+    <rPh sb="11" eb="13">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キソ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -419,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,6 +392,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1EB6D6-FB46-4106-BE11-0D2F4FE0C4E7}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -759,113 +724,81 @@
     <col min="3" max="3" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -891,17 +824,17 @@
   <sheetData>
     <row r="1" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -966,92 +899,92 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ゲーム制作3 企画書.xlsx
+++ b/ゲーム制作3 企画書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armor\Desktop\GitHub 後期\07Sato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467A32BE-D5A5-4814-B9FD-41C772759D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B41332-A492-4581-B389-7209B2D2D055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10755" yWindow="1200" windowWidth="14745" windowHeight="14400" xr2:uid="{A8A71601-A5A3-4A53-A15D-3F6023E42C06}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>ジャンル</t>
   </si>
@@ -84,25 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(何か特殊な移動手段を使える)</t>
-    <rPh sb="1" eb="2">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュダン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -126,13 +107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2. [ここに文字]</t>
-    <rPh sb="7" eb="9">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>イメージ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -213,19 +187,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一定の動きで移動する</t>
-    <rPh sb="0" eb="2">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>移動をさせない</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
@@ -311,15 +272,210 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1. [ここに文字]</t>
-  </si>
-  <si>
     <t>3. スコアとタイムの記録で競える</t>
     <rPh sb="11" eb="13">
       <t>キロク</t>
     </rPh>
     <rPh sb="14" eb="15">
       <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定の移動を行う</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細長いマップ</t>
+    <rPh sb="0" eb="2">
+      <t>ホソナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動かない障害物</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動く障害物</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経過時間を計る</t>
+    <rPh sb="0" eb="4">
+      <t>ケイカジカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小数点第一まで表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムとスコアの記録</t>
+    <rPh sb="8" eb="10">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　落下処理</t>
+    <rPh sb="2" eb="4">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム中の獲得スコア表示</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. [ここに文字]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 道中には障害物があり、それを上手く避けると記録が伸びやすくなる</t>
+    <rPh sb="3" eb="5">
+      <t>ドウチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前後左右に移動できる</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作入力で視点の方へ一定距離、瞬間移動をできる</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュとジャンプができる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射撃ができる　この攻撃で的を壊し、スコアを得ることができる</t>
+    <rPh sb="0" eb="2">
+      <t>シャゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスの操作で視点を移動</t>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -412,6 +568,74 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B34D6A4-46FF-474B-BB1A-EFCE19021C5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="5362575"/>
+          <a:ext cx="5934075" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -711,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1EB6D6-FB46-4106-BE11-0D2F4FE0C4E7}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -747,7 +971,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -759,80 +983,106 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>9</v>
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81919241-06CB-4382-9F9E-1143B3743605}">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="22" width="4.625" customWidth="1"/>
+    <col min="3" max="23" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -878,113 +1128,148 @@
       <c r="P3">
         <v>14</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>15</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>16</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>17</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>18</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>19</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>12</v>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
         <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>14</v>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ゲーム制作3 企画書.xlsx
+++ b/ゲーム制作3 企画書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armor\Desktop\GitHub 後期\07Sato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B41332-A492-4581-B389-7209B2D2D055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA7E9F5-6B58-4D8E-AA05-9A9B7C7592BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10755" yWindow="1200" windowWidth="14745" windowHeight="14400" xr2:uid="{A8A71601-A5A3-4A53-A15D-3F6023E42C06}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>ジャンル</t>
   </si>
@@ -152,45 +152,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　　　　　　静止型</t>
-    <rPh sb="7" eb="9">
-      <t>セイシ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　　　　移動型</t>
-    <rPh sb="7" eb="10">
-      <t>イドウガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スコアブロック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　　接触型</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　　的型</t>
-    <rPh sb="5" eb="6">
-      <t>マト</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動をさせない</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -207,29 +169,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>接触するとスコアを加算する</t>
-    <rPh sb="0" eb="2">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>右クリックで[特殊な移動手段]</t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>イドウシュダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アクションシューティング</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -272,16 +211,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3. スコアとタイムの記録で競える</t>
-    <rPh sb="11" eb="13">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>キソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一定の移動を行う</t>
     <rPh sb="0" eb="2">
       <t>イッテイ</t>
@@ -373,32 +302,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1. [ここに文字]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2. 道中には障害物があり、それを上手く避けると記録が伸びやすくなる</t>
-    <rPh sb="3" eb="5">
-      <t>ドウチュウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ショウガイブツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ウマ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.プレイヤー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -416,38 +319,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>操作入力で視点の方へ一定距離、瞬間移動をできる</t>
-    <rPh sb="0" eb="2">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シテン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュンカン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダッシュとジャンプができる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>射撃ができる　この攻撃で的を壊し、スコアを得ることができる</t>
     <rPh sb="0" eb="2">
       <t>シャゲキ</t>
@@ -477,6 +348,218 @@
     <rPh sb="10" eb="12">
       <t>イドウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右クリックで前方へ瞬間移動</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンポウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.障害物</t>
+    <rPh sb="2" eb="5">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPが定められている</t>
+    <rPh sb="3" eb="4">
+      <t>サダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接触でダメージを受ける障害物</t>
+    <rPh sb="0" eb="2">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　接触型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　的型</t>
+    <rPh sb="3" eb="4">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　静止型</t>
+    <rPh sb="4" eb="6">
+      <t>セイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　移動型</t>
+    <rPh sb="4" eb="7">
+      <t>イドウガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>照準の方へ飛んでいく</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが接触すると消える</t>
+    <rPh sb="6" eb="8">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消えるとスコアが加算される</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動をしない</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物に当たると消える</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアブロックに当たると消える</t>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　照準の向きに弾が飛んでいく</t>
+    <rPh sb="2" eb="4">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一部の物は接触するとダメージを受ける</t>
+  </si>
+  <si>
+    <t>プレイヤーの足場になったり、移動の阻害をする</t>
+    <rPh sb="6" eb="8">
+      <t>アシバ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPが0になるとゲーム終了</t>
+    <rPh sb="11" eb="13">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前方に一定の距離、瞬間移動することができる</t>
+  </si>
+  <si>
+    <t>3. スコアとタイムの記録で競える</t>
+  </si>
+  <si>
+    <t>2. 動く障害物の動きを読むことができれば、タイムの短縮につながる</t>
+    <rPh sb="3" eb="4">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タンシュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. [</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -509,7 +592,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +602,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +640,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,13 +668,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -935,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1EB6D6-FB46-4106-BE11-0D2F4FE0C4E7}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -971,7 +1063,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -983,71 +1075,91 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1059,17 +1171,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81919241-06CB-4382-9F9E-1143B3743605}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="23" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="12" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
+    <col min="14" max="23" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1116,16 +1230,17 @@
       <c r="L3">
         <v>10</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="5"/>
+      <c r="N3">
         <v>11</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>12</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>13</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>14</v>
       </c>
       <c r="R3">
@@ -1154,123 +1269,208 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>19</v>
       </c>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>16</v>
       </c>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>17</v>
       </c>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>18</v>
       </c>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
       <c r="B14" t="s">
-        <v>35</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M37" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/ゲーム制作3 企画書.xlsx
+++ b/ゲーム制作3 企画書.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armor\Desktop\GitHub 後期\07Sato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA7E9F5-6B58-4D8E-AA05-9A9B7C7592BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB16E84-B61C-4878-AEB1-2D17C8BF3463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10755" yWindow="1200" windowWidth="14745" windowHeight="14400" xr2:uid="{A8A71601-A5A3-4A53-A15D-3F6023E42C06}"/>
+    <workbookView xWindow="6810" yWindow="975" windowWidth="19845" windowHeight="13200" xr2:uid="{A8A71601-A5A3-4A53-A15D-3F6023E42C06}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>ジャンル</t>
   </si>
@@ -92,13 +92,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>障害物</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガイブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイマー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -302,55 +295,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前後左右に移動できる</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンゴ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サユウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>射撃ができる　この攻撃で的を壊し、スコアを得ることができる</t>
-    <rPh sb="0" eb="2">
-      <t>シャゲキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>マト</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>コワ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>エ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マウスの操作で視点を移動</t>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シテン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>右クリックで前方へ瞬間移動</t>
     <rPh sb="0" eb="1">
       <t>ミギ</t>
@@ -367,20 +311,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.障害物</t>
-    <rPh sb="2" eb="5">
-      <t>ショウガイブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HPが定められている</t>
-    <rPh sb="3" eb="4">
-      <t>サダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>接触でダメージを受ける障害物</t>
     <rPh sb="0" eb="2">
       <t>セッショク</t>
@@ -511,35 +441,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一部の物は接触するとダメージを受ける</t>
-  </si>
-  <si>
-    <t>プレイヤーの足場になったり、移動の阻害をする</t>
-    <rPh sb="6" eb="8">
-      <t>アシバ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HPが0になるとゲーム終了</t>
-    <rPh sb="11" eb="13">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前方に一定の距離、瞬間移動することができる</t>
-  </si>
-  <si>
-    <t>3. スコアとタイムの記録で競える</t>
-  </si>
-  <si>
     <t>2. 動く障害物の動きを読むことができれば、タイムの短縮につながる</t>
     <rPh sb="3" eb="4">
       <t>ウゴ</t>
@@ -559,7 +460,124 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1. [</t>
+    <t>ゴールにたどり着くとゲームクリア</t>
+    <rPh sb="7" eb="8">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物は足場になることもあれば、移動の阻害になることもある</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>アシバ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーにはHPがあり、HPが0になるとゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 一発撃つごとにリロードが入るので、多くの的を破壊するには正確に狙い素早く撃つことが重要</t>
+    <rPh sb="3" eb="5">
+      <t>イッパツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>スバヤ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>照準の向きに一定の距離、瞬間移動することができる</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動する障害物もある</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　障害物</t>
+    <rPh sb="2" eb="5">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物には、接触するとダメージを受ける物がある</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一発撃つごとにリロードする</t>
+    <rPh sb="0" eb="2">
+      <t>イッパツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. 瞬間移動の移動量は調整できないので使うタイミングをつかむのが重要</t>
+    <rPh sb="3" eb="7">
+      <t>シュンカンイドウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>イドウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジュウヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -592,7 +610,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,13 +629,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -626,7 +813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,6 +830,66 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,13 +915,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -690,7 +937,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="5362575"/>
+          <a:off x="133350" y="7981950"/>
           <a:ext cx="5934075" cy="3314700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -722,6 +969,817 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="台形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44356915-D6DE-4446-9D9A-539415B735F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409576" y="10601325"/>
+          <a:ext cx="5276850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 271457"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>197434</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>200649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243153</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>191051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A8B522-70AE-4DEE-8DCD-CD3AC3A95EA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21330511">
+          <a:off x="3178759" y="10201899"/>
+          <a:ext cx="45719" cy="466652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="台形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9571E36-CA61-4717-AFA0-FFA99D17B47B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="10382250"/>
+          <a:ext cx="466725" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="ひし形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E019EB1-5CA5-4230-B765-CE4BC80F52F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="10134600"/>
+          <a:ext cx="371475" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="六角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3199099-59CF-45BE-84EB-EBF4C2344641}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="9467850"/>
+          <a:ext cx="247650" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F136EC-73DD-4BEE-990C-54DBC33C8D58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524250" y="8353425"/>
+          <a:ext cx="314325" cy="2257425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="六角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA10B03-721C-4EE8-B71F-336876DAF7AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238375" y="8543925"/>
+          <a:ext cx="390525" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>385761</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>576261</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="台形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BDFE60-E525-4065-80B5-93FC67E25729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-347664" y="8753475"/>
+          <a:ext cx="3267075" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 36111"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EE7C04-3649-413B-8096-97C4B7448963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="9286875"/>
+          <a:ext cx="1276350" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="台形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11DA9DB-9FDA-414B-A01F-B8A3EC51932A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3171825" y="8753474"/>
+          <a:ext cx="3267075" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 37169"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フローチャート: 和接合 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB8BC8-7396-4515-97AB-8EB2F304544C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="9496425"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartSummingJunction">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="円: 塗りつぶしなし 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9974091-FC23-43F5-9C51-48C54C085E03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="10067925"/>
+          <a:ext cx="400050" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="donut">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12637"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1015,7 +2073,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr kumimoji="1" sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -1027,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1EB6D6-FB46-4106-BE11-0D2F4FE0C4E7}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1063,7 +2153,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -1074,54 +2164,48 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>40</v>
+      <c r="B20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -1129,37 +2213,32 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B28" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B29" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B30" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1171,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81919241-06CB-4382-9F9E-1143B3743605}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1182,162 +2261,267 @@
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="12" width="4.625" customWidth="1"/>
-    <col min="13" max="13" width="4" customWidth="1"/>
+    <col min="13" max="13" width="1" customWidth="1"/>
     <col min="14" max="23" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="18"/>
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="23">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="22">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="22">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="22">
         <v>4</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="22">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="22">
         <v>6</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="22">
         <v>7</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="22">
         <v>8</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="22">
         <v>9</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="22">
         <v>10</v>
       </c>
       <c r="M3" s="5"/>
-      <c r="N3">
-        <v>11</v>
-      </c>
-      <c r="O3">
-        <v>12</v>
-      </c>
-      <c r="P3">
-        <v>13</v>
-      </c>
-      <c r="Q3">
-        <v>14</v>
-      </c>
-      <c r="R3">
-        <v>15</v>
-      </c>
-      <c r="S3">
-        <v>16</v>
-      </c>
-      <c r="T3">
-        <v>17</v>
-      </c>
-      <c r="U3">
-        <v>18</v>
-      </c>
-      <c r="V3">
-        <v>19</v>
-      </c>
-      <c r="W3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -1345,89 +2529,244 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="11"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>28</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C25" s="12"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="11"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="21"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
       <c r="B29" t="s">
-        <v>25</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="21"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
@@ -1435,45 +2774,72 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="15"/>
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
       <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M37" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ゲーム制作3 企画書.xlsx
+++ b/ゲーム制作3 企画書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armor\Desktop\GitHub 後期\07Sato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB16E84-B61C-4878-AEB1-2D17C8BF3463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE99C43-8386-4D6C-B214-F4A7232F56F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="975" windowWidth="19845" windowHeight="13200" xr2:uid="{A8A71601-A5A3-4A53-A15D-3F6023E42C06}"/>
+    <workbookView xWindow="6810" yWindow="975" windowWidth="19845" windowHeight="13200" activeTab="1" xr2:uid="{A8A71601-A5A3-4A53-A15D-3F6023E42C06}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>ジャンル</t>
   </si>
@@ -578,6 +578,40 @@
     <rPh sb="33" eb="35">
       <t>ジュウヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>的型は静止したものと動くものがあり、動くものの方がスコアが高い</t>
+    <rPh sb="0" eb="1">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが接触することで壊れる接触型と、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアブロックには</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射撃によって壊れる的型の2種類がある</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -915,13 +949,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -978,13 +1012,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>647701</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1045,13 +1079,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>197434</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>200649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>243153</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>191051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1110,13 +1144,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1176,13 +1210,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1250,13 +1284,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1316,13 +1350,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1381,13 +1415,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1447,13 +1481,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>385761</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>576261</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1514,13 +1548,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1579,13 +1613,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1646,13 +1680,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1717,13 +1751,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2117,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1EB6D6-FB46-4106-BE11-0D2F4FE0C4E7}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2200,45 +2234,65 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B24" s="2" t="s">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B25" s="2" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B26" s="2" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2252,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81919241-06CB-4382-9F9E-1143B3743605}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
